--- a/PlantTransExp/docs/videoDuration.xlsx
+++ b/PlantTransExp/docs/videoDuration.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4000" yWindow="480" windowWidth="22160" windowHeight="15360" tabRatio="500"/>
+    <workbookView xWindow="1720" yWindow="1320" windowWidth="12760" windowHeight="11860" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>8/25_BFT-1.MOD</t>
   </si>
@@ -70,6 +71,57 @@
   </si>
   <si>
     <t>RC-2.mp4</t>
+  </si>
+  <si>
+    <t>minutes</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>expID</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>RC_acute</t>
+  </si>
+  <si>
+    <t>BFT_acute</t>
+  </si>
+  <si>
+    <t>WC_acute</t>
+  </si>
+  <si>
+    <t>WC_chronic1</t>
+  </si>
+  <si>
+    <t>WC_chronic2</t>
+  </si>
+  <si>
+    <t>WC_chronic3</t>
+  </si>
+  <si>
+    <t>BFT_diversity</t>
+  </si>
+  <si>
+    <t>RC_diversity</t>
+  </si>
+  <si>
+    <t>WC_diversity</t>
+  </si>
+  <si>
+    <t>total visits</t>
+  </si>
+  <si>
+    <t>visits/min</t>
+  </si>
+  <si>
+    <t>visits/hour</t>
+  </si>
+  <si>
+    <t>average visitation time (s)</t>
   </si>
 </sst>
 </file>
@@ -130,7 +182,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -150,15 +202,32 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="35">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -168,6 +237,14 @@
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -177,6 +254,14 @@
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -506,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -518,133 +603,227 @@
     <col min="2" max="2" width="9.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="C1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2">
         <v>6.8101851851851858E-2</v>
       </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="C2" s="5">
+        <f>B2*1440</f>
+        <v>98.066666666666677</v>
+      </c>
+      <c r="D2" s="5">
+        <f>C2+C3</f>
+        <v>210.73333333333335</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="2">
         <v>7.8240740740740736E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="C3" s="5">
+        <f t="shared" ref="C3:C16" si="0">B3*1440</f>
+        <v>112.66666666666666</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="2">
         <v>7.7534722222222227E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="C4" s="5">
+        <f t="shared" si="0"/>
+        <v>111.65</v>
+      </c>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="2">
         <v>5.4560185185185184E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="C5" s="5">
+        <f t="shared" si="0"/>
+        <v>78.566666666666663</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="2">
         <v>7.1261574074074074E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="C6" s="5">
+        <f t="shared" si="0"/>
+        <v>102.61666666666667</v>
+      </c>
+      <c r="D6" s="5">
+        <f>C6+C7</f>
+        <v>213.01666666666665</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="2">
         <v>7.6666666666666661E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="C7" s="5">
+        <f t="shared" si="0"/>
+        <v>110.39999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="2">
         <v>7.6979166666666668E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="C8" s="5">
+        <f t="shared" si="0"/>
+        <v>110.85000000000001</v>
+      </c>
+      <c r="D8" s="5">
+        <f>C8+C9</f>
+        <v>181.16666666666669</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="2">
         <v>4.8831018518518517E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="C9" s="5">
+        <f t="shared" si="0"/>
+        <v>70.316666666666663</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="2">
         <v>7.0231481481481492E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="C10" s="5">
+        <f t="shared" si="0"/>
+        <v>101.13333333333335</v>
+      </c>
+      <c r="D10" s="5">
+        <f>C10+C11</f>
+        <v>177.86666666666667</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="2">
         <v>5.3287037037037042E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="C11" s="5">
+        <f t="shared" si="0"/>
+        <v>76.733333333333334</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B12" s="2">
         <v>7.6006944444444446E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="C12" s="5">
+        <f t="shared" si="0"/>
+        <v>109.45</v>
+      </c>
+      <c r="D12" s="5">
+        <f>C12+C13</f>
+        <v>210.08333333333331</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="2">
         <v>6.9884259259259257E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="C13" s="5">
+        <f t="shared" si="0"/>
+        <v>100.63333333333333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B14" s="2">
         <v>4.3958333333333328E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="C14" s="5">
+        <f t="shared" si="0"/>
+        <v>63.29999999999999</v>
+      </c>
+      <c r="D14" s="5">
+        <f>C14+C16</f>
+        <v>173.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="4">
         <v>2.6296296296296293E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="C15" s="5">
+        <f t="shared" si="0"/>
+        <v>37.86666666666666</v>
+      </c>
+      <c r="D15" s="5">
+        <f>C4+C5+C15</f>
+        <v>228.08333333333331</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="2">
         <v>7.6527777777777778E-2</v>
+      </c>
+      <c r="C16" s="5">
+        <f t="shared" si="0"/>
+        <v>110.2</v>
       </c>
     </row>
   </sheetData>
@@ -659,4 +838,249 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" customWidth="1"/>
+    <col min="6" max="6" width="23.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="5">
+        <v>173.5</v>
+      </c>
+      <c r="C2">
+        <v>295</v>
+      </c>
+      <c r="D2">
+        <f>C2/B2</f>
+        <v>1.7002881844380404</v>
+      </c>
+      <c r="E2">
+        <f>D2*60</f>
+        <v>102.01729106628243</v>
+      </c>
+      <c r="F2">
+        <v>55.75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="5">
+        <v>210.73333333333335</v>
+      </c>
+      <c r="C3">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D10" si="0">C3/B3</f>
+        <v>5.2198671306548559E-2</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E10" si="1">D3*60</f>
+        <v>3.1319202783929136</v>
+      </c>
+      <c r="F3">
+        <v>154.44999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="5">
+        <v>228.08333333333331</v>
+      </c>
+      <c r="C4">
+        <v>869</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>3.8100109609061019</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>228.6006576543661</v>
+      </c>
+      <c r="F4">
+        <v>20.170000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="5">
+        <v>213.01666666666665</v>
+      </c>
+      <c r="C5">
+        <v>674</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>3.1640716688834991</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>189.84430013300994</v>
+      </c>
+      <c r="F5">
+        <v>21.23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="5">
+        <v>181.16666666666669</v>
+      </c>
+      <c r="C6">
+        <v>83</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0.45814167433302661</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>27.488500459981598</v>
+      </c>
+      <c r="F6">
+        <v>16.32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="5">
+        <v>177.86666666666667</v>
+      </c>
+      <c r="C7">
+        <v>524</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>2.9460269865067463</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>176.76161919040479</v>
+      </c>
+      <c r="F7">
+        <v>23.86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="5">
+        <v>210.08333333333331</v>
+      </c>
+      <c r="C8">
+        <v>29</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>0.13804046013486712</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>8.2824276080920267</v>
+      </c>
+      <c r="F8">
+        <v>12.82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="5">
+        <v>210.08333333333331</v>
+      </c>
+      <c r="C9">
+        <v>126</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>0.59976199920666406</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>35.985719952399847</v>
+      </c>
+      <c r="F9">
+        <v>75.69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="5">
+        <v>210.08333333333331</v>
+      </c>
+      <c r="C10">
+        <v>141</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>0.67116223720745738</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>40.269734232447441</v>
+      </c>
+      <c r="F10">
+        <v>16.61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>